--- a/data/livre-poche.xlsx
+++ b/data/livre-poche.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>node1</t>
   </si>
@@ -24,7 +24,7 @@
     <t>weight</t>
   </si>
   <si>
-    <t xml:space="preserve">Nouveaux Millendres</t>
+    <t xml:space="preserve">Nouveaux Millenaires</t>
   </si>
   <si>
     <t xml:space="preserve">J'ai lu</t>
@@ -33,7 +33,7 @@
     <t>Pygmalion</t>
   </si>
   <si>
-    <t xml:space="preserve">Actu SF</t>
+    <t>ActuSF</t>
   </si>
   <si>
     <t xml:space="preserve">Moutons Electriques</t>
@@ -45,16 +45,16 @@
     <t>Mnémos</t>
   </si>
   <si>
-    <t xml:space="preserve">Folio SF</t>
+    <t>FolioSF</t>
   </si>
   <si>
     <t>Denoël</t>
   </si>
   <si>
-    <t xml:space="preserve">Diable Vament</t>
-  </si>
-  <si>
-    <t>Novos</t>
+    <t xml:space="preserve">Au diable Vauvert</t>
+  </si>
+  <si>
+    <t>Naos</t>
   </si>
   <si>
     <t xml:space="preserve">Le Livre de Poche</t>
@@ -69,7 +69,10 @@
     <t xml:space="preserve">Albin Michel Imaginaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Milady &amp; Bragelone</t>
+    <t>Bragelonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milady &amp; Bragelonne</t>
   </si>
   <si>
     <t xml:space="preserve">L'Homme Sans Nom</t>
@@ -78,7 +81,7 @@
     <t>Pocket</t>
   </si>
   <si>
-    <t>Suineo</t>
+    <t>Scrineo</t>
   </si>
 </sst>
 </file>
@@ -810,10 +813,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -821,10 +824,10 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -832,10 +835,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>

--- a/data/livre-poche.xlsx
+++ b/data/livre-poche.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>node1</t>
   </si>
@@ -63,13 +63,10 @@
     <t>L'Atalante</t>
   </si>
   <si>
-    <t>Bragelone</t>
+    <t>Bragelonne</t>
   </si>
   <si>
     <t xml:space="preserve">Albin Michel Imaginaire</t>
-  </si>
-  <si>
-    <t>Bragelonne</t>
   </si>
   <si>
     <t xml:space="preserve">Milady &amp; Bragelonne</t>
@@ -813,10 +810,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -824,10 +821,10 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -835,10 +832,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>

--- a/data/livre-poche.xlsx
+++ b/data/livre-poche.xlsx
@@ -39,6 +39,9 @@
     <t xml:space="preserve">Moutons Electriques</t>
   </si>
   <si>
+    <t xml:space="preserve">Au diable Vauvert</t>
+  </si>
+  <si>
     <t>Hélios</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
   </si>
   <si>
     <t>Denoël</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au diable Vauvert</t>
   </si>
   <si>
     <t>Naos</t>
@@ -113,7 +113,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -688,22 +690,22 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -711,10 +713,10 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -722,10 +724,10 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -733,10 +735,10 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -744,10 +746,10 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -758,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -766,10 +768,10 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -777,7 +779,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -788,7 +790,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -799,7 +801,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -810,10 +812,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -821,10 +823,10 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -832,12 +834,23 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
